--- a/src/attributions/attributions_saliency_traj_242.xlsx
+++ b/src/attributions/attributions_saliency_traj_242.xlsx
@@ -1004,1709 +1004,1709 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0006362831918522716</v>
+        <v>1.372522717701941e-08</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001570400781929493</v>
+        <v>6.267542289606354e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001466466783313081</v>
+        <v>1.890912670887701e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001680755958659574</v>
+        <v>2.280558248912712e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002531552745494992</v>
+        <v>1.468536225956996e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002363397070439532</v>
+        <v>6.599067319257301e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002179254661314189</v>
+        <v>1.990183875477669e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001318267604801804</v>
+        <v>2.297793173511309e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>6.203403609106317e-05</v>
+        <v>1.142173431389892e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005650182720273733</v>
+        <v>6.047161349442831e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>4.57548230770044e-05</v>
+        <v>4.318595756558352e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>1.65054079843685e-05</v>
+        <v>1.254634298675228e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001409130054526031</v>
+        <v>7.225396814192209e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003939690068364143</v>
+        <v>1.519711645414645e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>8.838803478283808e-05</v>
+        <v>3.800916203999805e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0002245546056656167</v>
+        <v>2.243957197833879e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.13873299799161e-05</v>
+        <v>1.29040955698656e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>8.092672214843333e-05</v>
+        <v>8.695761266608315e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>5.056324152974412e-05</v>
+        <v>7.197863993724241e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>3.550546171027236e-05</v>
+        <v>2.952361555230709e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.043275551637635e-05</v>
+        <v>1.29504336143782e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.913283085741568e-05</v>
+        <v>1.343116196039773e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>9.561622573528439e-05</v>
+        <v>1.348574585335882e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>1.087097552954219e-05</v>
+        <v>5.787547863178588e-08</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.705881529953331e-05</v>
+        <v>1.225852344077794e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0001805894571589306</v>
+        <v>2.139931964961761e-08</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0001029620980261825</v>
+        <v>6.845566247193346e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.619323666091077e-05</v>
+        <v>1.040688886178032e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.248337816330604e-05</v>
+        <v>1.390756754204858e-08</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.359413237078115e-05</v>
+        <v>1.259964221844712e-07</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.760481038421858e-05</v>
+        <v>6.098319005332087e-08</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0001175791549030691</v>
+        <v>3.34586900407885e-08</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.26843979160185e-05</v>
+        <v>6.738972047060088e-08</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.112587000941858e-05</v>
+        <v>3.903409151462256e-08</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.000171203471836634</v>
+        <v>4.017306309833657e-08</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.070031405310147e-05</v>
+        <v>4.519061747032538e-08</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0001451040880056098</v>
+        <v>1.646661900167601e-07</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.59948244295083e-05</v>
+        <v>3.316490548854745e-08</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0001069125282811001</v>
+        <v>1.231409356705626e-07</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.965244342107326e-05</v>
+        <v>3.64562282584302e-08</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.191048770328052e-05</v>
+        <v>5.688871596021272e-08</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0001068224373739213</v>
+        <v>1.529221265172964e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.594907997874543e-05</v>
+        <v>1.213361855434414e-08</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.784721618809272e-05</v>
+        <v>9.364428876779129e-08</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.963692142860964e-05</v>
+        <v>1.053562570518807e-08</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0002815474290400743</v>
+        <v>1.690654727326546e-09</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.163041689433157e-05</v>
+        <v>3.000959338805842e-07</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0001440037740394473</v>
+        <v>1.72409869492185e-07</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.929372754413635e-05</v>
+        <v>1.268249576469316e-07</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0001660324342083186</v>
+        <v>1.056105674024366e-07</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.666821279097348e-05</v>
+        <v>4.011466216979898e-07</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0001192196796182543</v>
+        <v>2.259959046568838e-07</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.080894435290247e-06</v>
+        <v>1.820021395815274e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.24533980851993e-05</v>
+        <v>7.255430034547317e-09</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0002331506984774023</v>
+        <v>7.486227104891441e-08</v>
       </c>
       <c r="BD2" t="n">
-        <v>9.221867003361695e-07</v>
+        <v>4.865912472951095e-08</v>
       </c>
       <c r="BE2" t="n">
-        <v>5.879661330254748e-06</v>
+        <v>6.495934457007024e-09</v>
       </c>
       <c r="BF2" t="n">
-        <v>8.25636088848114e-05</v>
+        <v>1.340666244686872e-09</v>
       </c>
       <c r="BG2" t="n">
-        <v>3.320223913760856e-05</v>
+        <v>6.771653460191374e-08</v>
       </c>
       <c r="BH2" t="n">
-        <v>6.394867341441568e-06</v>
+        <v>6.558970966352717e-08</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0001241272111656144</v>
+        <v>4.044552071036378e-08</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0001620155962882563</v>
+        <v>2.422722218398121e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.764473123941571e-05</v>
+        <v>6.721034395695824e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>4.086996705154888e-05</v>
+        <v>8.229254433445021e-08</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.028812403092161e-05</v>
+        <v>2.238813721078259e-07</v>
       </c>
       <c r="BN2" t="n">
-        <v>4.265332972863689e-05</v>
+        <v>2.814810162732329e-09</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.000122107783681713</v>
+        <v>8.992725497591891e-08</v>
       </c>
       <c r="BP2" t="n">
-        <v>5.561167563428171e-05</v>
+        <v>1.262942816993018e-08</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3.189740527886897e-05</v>
+        <v>1.409004539709713e-07</v>
       </c>
       <c r="BR2" t="n">
-        <v>9.774415957508609e-05</v>
+        <v>3.755904742774874e-08</v>
       </c>
       <c r="BS2" t="n">
-        <v>4.338990402175114e-05</v>
+        <v>1.477111766234884e-08</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0001004915393423289</v>
+        <v>5.140598702269017e-08</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0002609535586088896</v>
+        <v>5.517048506931133e-08</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.863965164578985e-06</v>
+        <v>1.880042646007496e-07</v>
       </c>
       <c r="BW2" t="n">
-        <v>6.512577965622768e-05</v>
+        <v>1.590424574260396e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0001480222708778456</v>
+        <v>4.241361395429522e-08</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0002225878270110115</v>
+        <v>2.242949470598887e-08</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001442983630113304</v>
+        <v>1.525668551494164e-07</v>
       </c>
       <c r="CA2" t="n">
-        <v>5.702999624190852e-05</v>
+        <v>8.621363178917818e-08</v>
       </c>
       <c r="CB2" t="n">
-        <v>9.876338299363852e-05</v>
+        <v>2.148355378039923e-07</v>
       </c>
       <c r="CC2" t="n">
-        <v>6.94811296853004e-06</v>
+        <v>3.784868241041295e-08</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0001282917946809903</v>
+        <v>3.049240859809288e-08</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.185332075692713e-05</v>
+        <v>6.169895527818881e-08</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.128130629193038e-05</v>
+        <v>9.889660645967524e-09</v>
       </c>
       <c r="CG2" t="n">
-        <v>6.175755697768182e-05</v>
+        <v>1.745476296832749e-08</v>
       </c>
       <c r="CH2" t="n">
-        <v>5.028336818213575e-05</v>
+        <v>5.273279590767288e-09</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.142529708886286e-05</v>
+        <v>6.041400268941288e-08</v>
       </c>
       <c r="CJ2" t="n">
-        <v>4.373868432594463e-05</v>
+        <v>6.410837727344187e-08</v>
       </c>
       <c r="CK2" t="n">
-        <v>9.915313057717867e-06</v>
+        <v>1.006660568236839e-07</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.79581906599924e-05</v>
+        <v>1.856097853192296e-08</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0001314431428909302</v>
+        <v>3.00963565180723e-09</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0001533716131234542</v>
+        <v>2.097270623835357e-07</v>
       </c>
       <c r="CO2" t="n">
-        <v>3.938792724511586e-05</v>
+        <v>7.617920516622689e-09</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.295224112458527e-05</v>
+        <v>1.201439374654001e-07</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4.519588401308283e-05</v>
+        <v>1.168225125525169e-07</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.100071924360236e-06</v>
+        <v>7.375248856078542e-08</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.3838622989133e-05</v>
+        <v>8.709616849955637e-08</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001676507090451196</v>
+        <v>3.656246150285369e-08</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.372436028963421e-05</v>
+        <v>2.779343422076863e-10</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0001019145274767652</v>
+        <v>1.679589134440107e-09</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.18808020488359e-05</v>
+        <v>9.938823097854765e-08</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.701498331385665e-05</v>
+        <v>8.603796786132989e-09</v>
       </c>
       <c r="CY2" t="n">
-        <v>5.888869054615498e-05</v>
+        <v>2.84374799264242e-08</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3.045348057639785e-05</v>
+        <v>2.119000974687424e-08</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.819575481931679e-05</v>
+        <v>1.244020637614085e-07</v>
       </c>
       <c r="DB2" t="n">
-        <v>5.333626177161932e-05</v>
+        <v>4.524864749555491e-08</v>
       </c>
       <c r="DC2" t="n">
-        <v>4.561134846881032e-05</v>
+        <v>8.725741196258241e-08</v>
       </c>
       <c r="DD2" t="n">
-        <v>5.388190038502216e-05</v>
+        <v>1.413098793534573e-08</v>
       </c>
       <c r="DE2" t="n">
-        <v>8.594856626586989e-05</v>
+        <v>9.777405551858465e-09</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0001782240287866443</v>
+        <v>3.266955559411144e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>8.015304047148675e-06</v>
+        <v>7.027539794535187e-08</v>
       </c>
       <c r="DH2" t="n">
-        <v>8.647199138067663e-06</v>
+        <v>2.495097817245551e-07</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0001000882984953932</v>
+        <v>1.693491356036247e-07</v>
       </c>
       <c r="DJ2" t="n">
-        <v>5.790086652268656e-05</v>
+        <v>6.280107101019894e-08</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.425815030932426e-05</v>
+        <v>1.063686028146549e-07</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.527273889223579e-05</v>
+        <v>1.652840779797771e-07</v>
       </c>
       <c r="DM2" t="n">
-        <v>6.695211777696386e-05</v>
+        <v>1.172445820429857e-07</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.847579187597148e-05</v>
+        <v>6.493948490060575e-08</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.326180063188076e-05</v>
+        <v>2.579068905106396e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.816410415107384e-06</v>
+        <v>8.011401320118239e-09</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.076164335245267e-05</v>
+        <v>4.916660145681817e-08</v>
       </c>
       <c r="DR2" t="n">
-        <v>9.376024536322802e-05</v>
+        <v>3.29045576563658e-07</v>
       </c>
       <c r="DS2" t="n">
-        <v>8.040124521357939e-05</v>
+        <v>1.107057556737345e-07</v>
       </c>
       <c r="DT2" t="n">
-        <v>3.929596277885139e-05</v>
+        <v>4.883450088755126e-08</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.74005932523869e-05</v>
+        <v>9.942279177721502e-08</v>
       </c>
       <c r="DV2" t="n">
-        <v>6.144005601527169e-05</v>
+        <v>1.043890307528272e-08</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.540776040405035e-05</v>
+        <v>6.761730020343748e-08</v>
       </c>
       <c r="DX2" t="n">
-        <v>4.640488623408601e-05</v>
+        <v>5.993578611196426e-08</v>
       </c>
       <c r="DY2" t="n">
-        <v>8.526340025127865e-06</v>
+        <v>5.688616511179134e-08</v>
       </c>
       <c r="DZ2" t="n">
-        <v>6.605737326026428e-06</v>
+        <v>1.827337570148302e-08</v>
       </c>
       <c r="EA2" t="n">
-        <v>4.138724034419283e-05</v>
+        <v>3.860625952256669e-08</v>
       </c>
       <c r="EB2" t="n">
-        <v>4.786082718055695e-05</v>
+        <v>6.508466299237625e-08</v>
       </c>
       <c r="EC2" t="n">
-        <v>4.117667049285956e-05</v>
+        <v>7.943227586793e-08</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001390949619235471</v>
+        <v>1.412049073223898e-07</v>
       </c>
       <c r="EE2" t="n">
-        <v>7.571569312858628e-06</v>
+        <v>7.815376790176742e-08</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0002133326634066179</v>
+        <v>2.96749345096714e-08</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0001042195872287266</v>
+        <v>5.477125952779716e-08</v>
       </c>
       <c r="EH2" t="n">
-        <v>5.16706750204321e-05</v>
+        <v>4.41492247205133e-08</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.790138569253031e-05</v>
+        <v>4.680432397208278e-08</v>
       </c>
       <c r="EJ2" t="n">
-        <v>8.892705227481201e-05</v>
+        <v>5.307413886157519e-08</v>
       </c>
       <c r="EK2" t="n">
-        <v>9.668495476944372e-05</v>
+        <v>3.415997795741532e-08</v>
       </c>
       <c r="EL2" t="n">
-        <v>3.097949957009405e-06</v>
+        <v>1.042189481381683e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>3.948367884731852e-05</v>
+        <v>4.623387539481882e-08</v>
       </c>
       <c r="EN2" t="n">
-        <v>4.417097079567611e-05</v>
+        <v>3.705250861685272e-08</v>
       </c>
       <c r="EO2" t="n">
-        <v>4.718933632830158e-05</v>
+        <v>1.28257422460365e-08</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.594767859904096e-05</v>
+        <v>2.334736670661641e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>3.980667315772735e-07</v>
+        <v>1.060800514096627e-07</v>
       </c>
       <c r="ER2" t="n">
-        <v>4.36208356404677e-05</v>
+        <v>4.969614053607074e-09</v>
       </c>
       <c r="ES2" t="n">
-        <v>4.465046004042961e-05</v>
+        <v>2.734078634603065e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>3.53280920535326e-05</v>
+        <v>6.901714044715845e-08</v>
       </c>
       <c r="EU2" t="n">
-        <v>5.972132930764928e-05</v>
+        <v>8.593045208726835e-08</v>
       </c>
       <c r="EV2" t="n">
-        <v>3.765893416129984e-05</v>
+        <v>1.840608945258282e-07</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.025030542223249e-05</v>
+        <v>1.018471493807738e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0001051328217727132</v>
+        <v>4.068511749721893e-09</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.079392288578674e-05</v>
+        <v>3.742580290122532e-08</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3.041741365450434e-07</v>
+        <v>1.377867242524644e-08</v>
       </c>
       <c r="FA2" t="n">
-        <v>4.734977846965194e-05</v>
+        <v>1.426169582430248e-08</v>
       </c>
       <c r="FB2" t="n">
-        <v>7.378735608654097e-05</v>
+        <v>5.898710853102784e-08</v>
       </c>
       <c r="FC2" t="n">
-        <v>2.304894769622479e-05</v>
+        <v>6.884622649749872e-08</v>
       </c>
       <c r="FD2" t="n">
-        <v>3.23121712426655e-05</v>
+        <v>7.737300222743215e-08</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.782552317308728e-06</v>
+        <v>7.38162242441831e-08</v>
       </c>
       <c r="FF2" t="n">
-        <v>3.504269261611626e-05</v>
+        <v>8.16683609627944e-09</v>
       </c>
       <c r="FG2" t="n">
-        <v>4.716057446785271e-07</v>
+        <v>1.834609619777439e-08</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0002620593004394323</v>
+        <v>3.78772462283905e-08</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0001044163727783598</v>
+        <v>1.352596825654473e-07</v>
       </c>
       <c r="FJ2" t="n">
-        <v>8.926025475375354e-05</v>
+        <v>9.60648662839958e-08</v>
       </c>
       <c r="FK2" t="n">
-        <v>6.014001701259986e-05</v>
+        <v>2.777139229692693e-08</v>
       </c>
       <c r="FL2" t="n">
-        <v>4.302240267861634e-05</v>
+        <v>2.846418567514775e-08</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.429524672857951e-05</v>
+        <v>2.193038284303839e-08</v>
       </c>
       <c r="FN2" t="n">
-        <v>9.088123624678701e-05</v>
+        <v>4.503096917574112e-08</v>
       </c>
       <c r="FO2" t="n">
-        <v>6.5249778344878e-06</v>
+        <v>2.446398461586341e-08</v>
       </c>
       <c r="FP2" t="n">
-        <v>4.744236503029242e-05</v>
+        <v>2.111479702193719e-08</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001889436243800446</v>
+        <v>4.206960113606328e-08</v>
       </c>
       <c r="FR2" t="n">
-        <v>5.528141628019512e-05</v>
+        <v>3.429601491689027e-09</v>
       </c>
       <c r="FS2" t="n">
-        <v>3.792347706621513e-05</v>
+        <v>1.629369705824502e-07</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0001035213790601119</v>
+        <v>2.465821751229669e-07</v>
       </c>
       <c r="FU2" t="n">
-        <v>6.219307397259399e-05</v>
+        <v>1.738282833230187e-07</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.131886165239848e-05</v>
+        <v>7.390681133756516e-08</v>
       </c>
       <c r="FW2" t="n">
-        <v>2.433216832287144e-05</v>
+        <v>1.948827588194035e-08</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.547307177446783e-05</v>
+        <v>4.08113720595793e-08</v>
       </c>
       <c r="FY2" t="n">
-        <v>2.726888487813994e-05</v>
+        <v>6.723224643678805e-09</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.852139368769713e-05</v>
+        <v>7.024968340374471e-08</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0001245794846909121</v>
+        <v>4.972743994358098e-08</v>
       </c>
       <c r="GB2" t="n">
-        <v>3.190627103322186e-05</v>
+        <v>1.553807749132829e-08</v>
       </c>
       <c r="GC2" t="n">
-        <v>9.794508514460176e-06</v>
+        <v>4.919705816064379e-07</v>
       </c>
       <c r="GD2" t="n">
-        <v>4.791367973666638e-05</v>
+        <v>2.021386258377333e-08</v>
       </c>
       <c r="GE2" t="n">
-        <v>7.102960807969794e-06</v>
+        <v>9.941985723571634e-08</v>
       </c>
       <c r="GF2" t="n">
-        <v>2.37821714108577e-05</v>
+        <v>1.665472382228472e-08</v>
       </c>
       <c r="GG2" t="n">
-        <v>8.81203159224242e-05</v>
+        <v>3.705685003296821e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002771540079265833</v>
+        <v>0.0008215091074816883</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0005920578259974718</v>
+        <v>0.007357816211879253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003492778399959207</v>
+        <v>0.0007596974610351026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0006143392529338598</v>
+        <v>0.002901285421103239</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002626279136165977</v>
+        <v>0.001185678644105792</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005835542106069624</v>
+        <v>0.003822124563157558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003686055133584887</v>
+        <v>0.000451955886092037</v>
       </c>
       <c r="H3" t="n">
-        <v>1.144004636444151e-05</v>
+        <v>0.002513336483389139</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004484940436668694</v>
+        <v>0.0008211316308006644</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002992477267980576</v>
+        <v>0.00168187078088522</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0007351855165325105</v>
+        <v>0.006597218103706837</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003737048245966434</v>
+        <v>0.0003580268821679056</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0002434841298963875</v>
+        <v>0.002426447346806526</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00099186971783638</v>
+        <v>0.0001952547172550112</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0009261249797418714</v>
+        <v>0.003576611168682575</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006350030307658017</v>
+        <v>0.0003313964116387069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0004137872892897576</v>
+        <v>0.0006102535990066826</v>
       </c>
       <c r="R3" t="n">
-        <v>0.000817540567368269</v>
+        <v>0.001637006178498268</v>
       </c>
       <c r="S3" t="n">
-        <v>4.544043622445315e-05</v>
+        <v>0.0003023514873348176</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001022570999339223</v>
+        <v>0.0007793501717969775</v>
       </c>
       <c r="U3" t="n">
-        <v>4.621453263098374e-05</v>
+        <v>0.000668381922878325</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0001460110652260482</v>
+        <v>0.0004772191459778696</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0003241482481826097</v>
+        <v>0.0005813061725348234</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0001256051909876987</v>
+        <v>0.001130633638240397</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0003613414592109621</v>
+        <v>0.0004888223484158516</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0005564322345890105</v>
+        <v>0.001270859269425273</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0001518454810138792</v>
+        <v>0.001157693914137781</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.607800555182621e-05</v>
+        <v>0.0004067051340825856</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.184561501257122e-05</v>
+        <v>0.0004819438909180462</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0002936575911007822</v>
+        <v>1.651000638958067e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0005100289708934724</v>
+        <v>7.823276973795146e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.22595878969878e-05</v>
+        <v>0.0008778382325544953</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.254058775492013e-05</v>
+        <v>0.0003365974698681384</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0005106159951537848</v>
+        <v>0.000314327422529459</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0008481491240672767</v>
+        <v>0.000212902610655874</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.000470075145130977</v>
+        <v>0.0005985636962577701</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0008454077760688961</v>
+        <v>0.0007691995706409216</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.00106604874599725</v>
+        <v>0.001172114629298449</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0004633011412806809</v>
+        <v>0.0001489598944317549</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0005694213905371726</v>
+        <v>0.0007968096761032939</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.961757880053483e-05</v>
+        <v>0.0002859412925317883</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0004037393373437226</v>
+        <v>0.0009501046733930707</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.121316982898861e-05</v>
+        <v>0.0005664450582116842</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0002339894417673349</v>
+        <v>0.0001220673584612086</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0001453865843359381</v>
+        <v>0.001031357096508145</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.001202840940095484</v>
+        <v>0.0005972487851977348</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0009682870004326105</v>
+        <v>0.004268782213330269</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.00209344644099474</v>
+        <v>0.0003024619072675705</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0004018454346805811</v>
+        <v>0.000675296294502914</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0001861591008491814</v>
+        <v>0.0003070602251682431</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0008407821296714246</v>
+        <v>0.003067437093704939</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0005018541123718023</v>
+        <v>0.002042683074250817</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0002180034352932125</v>
+        <v>0.001134681515395641</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0002514511870685965</v>
+        <v>0.002112460788339376</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.000318551465170458</v>
+        <v>0.0005722347996197641</v>
       </c>
       <c r="BD3" t="n">
-        <v>6.240194488782436e-05</v>
+        <v>0.00128172873519361</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0007222855929285288</v>
+        <v>0.001583439647220075</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0001068050260073505</v>
+        <v>0.0002794331812765449</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.00127094890922308</v>
+        <v>0.0008011817699298263</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.000466059020254761</v>
+        <v>0.0005111470818519592</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0007703806040808558</v>
+        <v>0.000876224716193974</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.0007935726316645741</v>
+        <v>0.00128467008471489</v>
       </c>
       <c r="BK3" t="n">
-        <v>9.904284524964169e-06</v>
+        <v>0.001478591118939221</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0001770791423041373</v>
+        <v>0.0002639266895130277</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0005434955819509923</v>
+        <v>0.0007923795492388308</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0007434231229126453</v>
+        <v>0.0007976455963216722</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0002074189105769619</v>
+        <v>6.533224950544536e-05</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0006266119889914989</v>
+        <v>0.0001940045331139117</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0001122539688367397</v>
+        <v>0.0005466399015858769</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.000502154347486794</v>
+        <v>0.0008900591637939215</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.0005583892343565822</v>
+        <v>0.0007337903371080756</v>
       </c>
       <c r="BT3" t="n">
-        <v>7.698350964346901e-05</v>
+        <v>3.813314833678305e-05</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.001422316068783402</v>
+        <v>3.08155722450465e-06</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0002344956737942994</v>
+        <v>0.002433221088722348</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.001062101451680064</v>
+        <v>0.001224022707901895</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0002161690790671855</v>
+        <v>0.0002091674832627177</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.0006499906303361058</v>
+        <v>0.0005235119024291635</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0005289143300615251</v>
+        <v>0.001480267150327563</v>
       </c>
       <c r="CA3" t="n">
-        <v>6.380122795235366e-05</v>
+        <v>0.0003995225997641683</v>
       </c>
       <c r="CB3" t="n">
-        <v>5.748561670770869e-05</v>
+        <v>0.0003558454918675125</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0002085569285554811</v>
+        <v>0.0009209542768076062</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0006533479318022728</v>
+        <v>0.0001468190748710185</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.000828609976451844</v>
+        <v>0.001312564476393163</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.000597181438934058</v>
+        <v>0.0006458446732722223</v>
       </c>
       <c r="CG3" t="n">
-        <v>7.841038313927129e-05</v>
+        <v>0.0001545480045024306</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0003718305379152298</v>
+        <v>0.0002390662557445467</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.000363827362889424</v>
+        <v>0.0003412157238926739</v>
       </c>
       <c r="CJ3" t="n">
-        <v>6.777256930945441e-05</v>
+        <v>0.000555011909455061</v>
       </c>
       <c r="CK3" t="n">
-        <v>5.066258017905056e-05</v>
+        <v>0.0005050198524259031</v>
       </c>
       <c r="CL3" t="n">
-        <v>7.486555114155635e-05</v>
+        <v>0.0006179085467010736</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0002263393253087997</v>
+        <v>0.001559398369863629</v>
       </c>
       <c r="CN3" t="n">
-        <v>7.674330845475197e-05</v>
+        <v>0.0002937455428764224</v>
       </c>
       <c r="CO3" t="n">
-        <v>4.742218879982829e-05</v>
+        <v>3.583227953640744e-05</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.0004725584003608674</v>
+        <v>0.002599035855382681</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0002158105780836195</v>
+        <v>0.0006276926142163575</v>
       </c>
       <c r="CR3" t="n">
-        <v>2.415245398879051e-05</v>
+        <v>0.0009578306926414371</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0001253718219231814</v>
+        <v>0.00154670502524823</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0001669465127633885</v>
+        <v>0.001143148168921471</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0001537158386781812</v>
+        <v>0.0004399843164719641</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0006056775455363095</v>
+        <v>0.0001482634979765862</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.0007912889122962952</v>
+        <v>0.001282103592529893</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0006907484494149685</v>
+        <v>0.0006782902637496591</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0001052087536663748</v>
+        <v>0.0005645649507641792</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0007690673228353262</v>
+        <v>0.0003633728192653507</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.000389946042560041</v>
+        <v>0.0002311684074811637</v>
       </c>
       <c r="DB3" t="n">
-        <v>2.401357050985098e-06</v>
+        <v>0.0005277460440993309</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.467727997805923e-06</v>
+        <v>0.0008844244293868542</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0001035679379128851</v>
+        <v>0.0005930714542046189</v>
       </c>
       <c r="DE3" t="n">
-        <v>7.726732292212546e-05</v>
+        <v>0.0008343485533259809</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.002183145377784967</v>
+        <v>0.0006092777475714684</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0008957490208558738</v>
+        <v>0.0004233690269757062</v>
       </c>
       <c r="DH3" t="n">
-        <v>7.072369771776721e-05</v>
+        <v>0.001156477024778724</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0003728583105839789</v>
+        <v>0.001250251661986113</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0002551769139245152</v>
+        <v>0.003813724033534527</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0001198455429403111</v>
+        <v>0.0006673276657238603</v>
       </c>
       <c r="DL3" t="n">
-        <v>1.394606078974903e-05</v>
+        <v>0.001813372480683029</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0001577890652697533</v>
+        <v>0.001558636082336307</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0001284323225263506</v>
+        <v>2.334002056159079e-05</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.000943644845392555</v>
+        <v>0.0006259322399273515</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.262793714180589e-05</v>
+        <v>0.0007168910815380514</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.55474481289275e-05</v>
+        <v>4.751826782012358e-05</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.000439270690549165</v>
+        <v>0.0004305627080611885</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0002122544392477721</v>
+        <v>0.001276345225051045</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0002762529766187072</v>
+        <v>0.001376683358103037</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0001752775424392894</v>
+        <v>0.000288891838863492</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0002423913101665676</v>
+        <v>0.0001010065025184304</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0003208049456588924</v>
+        <v>6.435421528294683e-05</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0001905413664644584</v>
+        <v>0.0007772127282805741</v>
       </c>
       <c r="DY3" t="n">
-        <v>9.307319123763591e-05</v>
+        <v>0.000683779246173799</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0003566722152754664</v>
+        <v>0.001013372908346355</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.000669607543386519</v>
+        <v>0.0004152124165557325</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0002006968279602006</v>
+        <v>0.000545650371350348</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0004259378183633089</v>
+        <v>0.0004468656843528152</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0003158043837174773</v>
+        <v>0.0001848116371547803</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0003529769601300359</v>
+        <v>0.001598475617356598</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.001122754765674472</v>
+        <v>0.0005698305321857333</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.0004152926267124712</v>
+        <v>0.001432370045222342</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0007416582084260881</v>
+        <v>0.0005487552843987942</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0003788104222621769</v>
+        <v>0.0003158509207423776</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0002356414042878896</v>
+        <v>0.000407946587074548</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.001007834682241082</v>
+        <v>0.001170337316580117</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0001872213324531913</v>
+        <v>0.0009162219939753413</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0005876699578948319</v>
+        <v>0.0003119456523563713</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0004578445805236697</v>
+        <v>0.0002561459550634027</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0002169830695493147</v>
+        <v>0.0001874671434052289</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.0004058649064972997</v>
+        <v>0.0008519500261172652</v>
       </c>
       <c r="EQ3" t="n">
-        <v>8.75744444783777e-06</v>
+        <v>0.0009522722102701664</v>
       </c>
       <c r="ER3" t="n">
-        <v>4.826429358217865e-05</v>
+        <v>0.0003711887402459979</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0004668852197937667</v>
+        <v>0.001207914901897311</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0005503973225131631</v>
+        <v>0.0005253757699392736</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0003508402442093939</v>
+        <v>0.001730679767206311</v>
       </c>
       <c r="EV3" t="n">
-        <v>8.73375465744175e-05</v>
+        <v>0.001975083723664284</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0001147851071436889</v>
+        <v>0.0003197209734935313</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0006796768866479397</v>
+        <v>0.0003268037107773125</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0006573527352884412</v>
+        <v>0.001200464088469744</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0006971713155508041</v>
+        <v>0.0005563810700550675</v>
       </c>
       <c r="FA3" t="n">
-        <v>9.358998067909852e-05</v>
+        <v>1.240198616869748e-05</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0006011168006807566</v>
+        <v>0.0002984690072480589</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0001804278144845739</v>
+        <v>0.0001476836914662272</v>
       </c>
       <c r="FD3" t="n">
-        <v>6.054702680557966e-05</v>
+        <v>0.0009641296928748488</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0001534883340355009</v>
+        <v>0.0007885682862251997</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0002449380699545145</v>
+        <v>0.0008531216299161315</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0004898015758953989</v>
+        <v>0.0002685680228751153</v>
       </c>
       <c r="FH3" t="n">
-        <v>2.279366162838414e-05</v>
+        <v>0.0004212309431750327</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0007184781134128571</v>
+        <v>0.001085583702661097</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.0007677095127291977</v>
+        <v>0.001376043073832989</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.0004950286238454282</v>
+        <v>0.0004222843563184142</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.0004064963723067194</v>
+        <v>0.0004832374979741871</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0004494446329772472</v>
+        <v>0.0005190055817365646</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.0002984135644510388</v>
+        <v>0.000526027986779809</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.0005813941825181246</v>
+        <v>0.0008158473065122962</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0006122904596850276</v>
+        <v>0.0008496994851157069</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.001906024059280753</v>
+        <v>0.0001778975711204112</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0002503521973267198</v>
+        <v>0.0007066731341183186</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0004871873534284532</v>
+        <v>0.001005546771921217</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.0002645748027134687</v>
+        <v>0.0004911533906124532</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0007410582038573921</v>
+        <v>0.001013282453641295</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.0001482451771153137</v>
+        <v>0.001066962257027626</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0001924987009260803</v>
+        <v>0.000961143639869988</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0002036404039245099</v>
+        <v>0.0006661137449555099</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0003382187569513917</v>
+        <v>0.001504588406533003</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0003411492798477411</v>
+        <v>0.0005232733092270792</v>
       </c>
       <c r="GA3" t="n">
-        <v>7.055193418636918e-05</v>
+        <v>0.0005885412101633847</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0002889861934818327</v>
+        <v>0.0002604089095257223</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0002896296791732311</v>
+        <v>0.0009951444808393717</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0005587311461567879</v>
+        <v>0.0004141477693337947</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0001218086617882363</v>
+        <v>0.001735927420668304</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0002249524841317907</v>
+        <v>0.0005707900272682309</v>
       </c>
       <c r="GG3" t="n">
-        <v>8.708343375474215e-05</v>
+        <v>0.0002111555077135563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.008946343325078487</v>
+        <v>0.01861057803034782</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002329918323084712</v>
+        <v>0.2371256947517395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008336184546351433</v>
+        <v>0.006445686332881451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001610021572560072</v>
+        <v>0.1187348589301109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003249197732657194</v>
+        <v>0.0323340892791748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001526090898551047</v>
+        <v>0.203238770365715</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001259404933080077</v>
+        <v>0.001469207927584648</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001448026450816542</v>
+        <v>0.08297643065452576</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001893412787467241</v>
+        <v>0.01685802266001701</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008609429001808167</v>
+        <v>0.04856201261281967</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001372694387100637</v>
+        <v>0.2230824679136276</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009552678093314171</v>
+        <v>0.004515244159847498</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001865220547188073</v>
+        <v>0.08597143739461899</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0004555365303531289</v>
+        <v>0.003100891131907701</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002245189156383276</v>
+        <v>0.1893228590488434</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002361797261983156</v>
+        <v>0.01312901824712753</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.000254022452281788</v>
+        <v>0.03677046671509743</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002658072393387556</v>
+        <v>0.005585072096437216</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0003008236235473305</v>
+        <v>0.01078718341886997</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001175667741335928</v>
+        <v>0.01615801453590393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0006953474367037416</v>
+        <v>0.02153419330716133</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0003985023067798465</v>
+        <v>0.03197560459375381</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0006355381337925792</v>
+        <v>0.0583316832780838</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001235380652360618</v>
+        <v>0.0186696108430624</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0004593519261106849</v>
+        <v>0.01893303729593754</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.001193147618323565</v>
+        <v>0.05739665031433105</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0003520772443152964</v>
+        <v>0.03486910462379456</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.586643677204847e-05</v>
+        <v>0.001438789069652557</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0002515973756089807</v>
+        <v>0.0133759044110775</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0004119515942875296</v>
+        <v>0.009325931780040264</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.001468090573325753</v>
+        <v>0.009861024096608162</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0003025334444828331</v>
+        <v>0.01389772724360228</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0005678250454366207</v>
+        <v>0.0143308974802494</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.000395022623706609</v>
+        <v>0.01284622400999069</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.002250173129141331</v>
+        <v>0.008509773761034012</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.001145925838500261</v>
+        <v>0.0130384424701333</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.002015685196965933</v>
+        <v>0.02094356715679169</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.001399665139615536</v>
+        <v>0.04187099635601044</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0009700964437797666</v>
+        <v>0.002297541126608849</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.001609809580259025</v>
+        <v>0.008399352431297302</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.83168216003105e-05</v>
+        <v>0.0009102043695747852</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0006077670259401202</v>
+        <v>0.02807123400270939</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0002243869530502707</v>
+        <v>0.00256158341653645</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0009328219457529485</v>
+        <v>0.01317024976015091</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0002878480008803308</v>
+        <v>0.02483553253114223</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.004063391126692295</v>
+        <v>0.03235190361738205</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.001012348686344922</v>
+        <v>0.1736998409032822</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.004317376762628555</v>
+        <v>0.005375235341489315</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.001478762598708272</v>
+        <v>0.04496053233742714</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0006583911017514765</v>
+        <v>0.01709465309977531</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.001387500087730587</v>
+        <v>0.1077655255794525</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0007287649787031114</v>
+        <v>0.02394679933786392</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0003755690122488886</v>
+        <v>0.0204777829349041</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0003668480785563588</v>
+        <v>0.06129929423332214</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.001395787345245481</v>
+        <v>0.0216589942574501</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0004848653625231236</v>
+        <v>0.03791249915957451</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.002294803503900766</v>
+        <v>0.04754414781928062</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0001950178557308391</v>
+        <v>0.00249142711982131</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.002704986836761236</v>
+        <v>0.03823554515838623</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.00119840179104358</v>
+        <v>0.06128839775919914</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.00147494301199913</v>
+        <v>0.01917595602571964</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.001166914473287761</v>
+        <v>0.01999368704855442</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0004705241299234331</v>
+        <v>0.01394461281597614</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0005067484453320503</v>
+        <v>0.0001503666862845421</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.001325001823715866</v>
+        <v>0.0546487532556057</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.001386891584843397</v>
+        <v>0.00672224722802639</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0007443609647452831</v>
+        <v>0.01508929952979088</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.002196868881583214</v>
+        <v>0.003939978778362274</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0009819165570661426</v>
+        <v>0.001912229578010738</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.000638506724499166</v>
+        <v>0.01697306707501411</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.001224872888997197</v>
+        <v>0.006471746601164341</v>
       </c>
       <c r="BT4" t="n">
-        <v>4.729615466203541e-05</v>
+        <v>0.006727925501763821</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.003678509732708335</v>
+        <v>0.01539248321205378</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0004567594733089209</v>
+        <v>0.09007550776004791</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.001793169183656573</v>
+        <v>0.01483060978353024</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0005708122625946999</v>
+        <v>0.03765137121081352</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.001548171974718571</v>
+        <v>0.02255133725702763</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0006798924296163023</v>
+        <v>0.04176545515656471</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0006618232000619173</v>
+        <v>0.01393814291805029</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0003325298021081835</v>
+        <v>0.0002313493750989437</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.001220057718455791</v>
+        <v>0.04003608599305153</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.001905707875266671</v>
+        <v>0.001381583511829376</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.002196916844695807</v>
+        <v>0.03101350367069244</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.001658683293499053</v>
+        <v>0.02275220118463039</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0001921372022479773</v>
+        <v>0.01631583645939827</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0002439352974761277</v>
+        <v>0.005913358181715012</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.0007076495094224811</v>
+        <v>0.0315823070704937</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0001480892387917265</v>
+        <v>0.01641953736543655</v>
       </c>
       <c r="CK4" t="n">
-        <v>5.317269824445248e-05</v>
+        <v>0.01131806336343288</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0002075005759252235</v>
+        <v>0.02083336561918259</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.0006116989534348249</v>
+        <v>0.05034342035651207</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0001308680220972747</v>
+        <v>0.007730855606496334</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0002573845267761499</v>
+        <v>0.005318635143339634</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0009023312595672905</v>
+        <v>0.0362873338162899</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.001761764637194574</v>
+        <v>0.001192907337099314</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0003903508768416941</v>
+        <v>0.006107674911618233</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0004630759649444371</v>
+        <v>0.04923717677593231</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0001021686475723982</v>
+        <v>0.04619910195469856</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0001103620161302388</v>
+        <v>0.009500612504780293</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.001699293730780482</v>
+        <v>0.0001195187214761972</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.001998592866584659</v>
+        <v>0.02730012498795986</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.001919442787766457</v>
+        <v>0.01881650649011135</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0003340484399814159</v>
+        <v>0.02870979718863964</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.001219503348693252</v>
+        <v>0.007997095584869385</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0009735636413097382</v>
+        <v>0.03324554488062859</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.0002161097654607147</v>
+        <v>0.01652374491095543</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0002562963636592031</v>
+        <v>0.02352634444832802</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.000124595986562781</v>
+        <v>0.01090287044644356</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0007678621914237738</v>
+        <v>0.005340783856809139</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.005045210942625999</v>
+        <v>0.01120668277144432</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.001696798717603087</v>
+        <v>0.007310524582862854</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0005922333803027868</v>
+        <v>0.08527781814336777</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.001236383803188801</v>
+        <v>0.04483778774738312</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.001311307307332754</v>
+        <v>0.02795918844640255</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.001257584663107991</v>
+        <v>0.004713171161711216</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0003087951918132603</v>
+        <v>0.03878370299935341</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.000213817591429688</v>
+        <v>0.02164205349981785</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0003612642758525908</v>
+        <v>0.004920377396047115</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.002342756139114499</v>
+        <v>0.0031406763009727</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0004643505089916289</v>
+        <v>0.01693795807659626</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0001657559478189796</v>
+        <v>0.0004337313584983349</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0005002561374567449</v>
+        <v>0.008421801961958408</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0006337017985060811</v>
+        <v>0.002283880952745676</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0001016406531562097</v>
+        <v>0.00104664801619947</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0002099672565236688</v>
+        <v>0.002834649290889502</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0005943402065895498</v>
+        <v>0.02057269774377346</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.001101192086935043</v>
+        <v>0.0001513669267296791</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.001070731319487095</v>
+        <v>0.0252188928425312</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0004379599704407156</v>
+        <v>0.01928079500794411</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.001034676213748753</v>
+        <v>0.008103316649794579</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0008692785631865263</v>
+        <v>0.00138934375718236</v>
       </c>
       <c r="EB4" t="n">
-        <v>9.50635876506567e-06</v>
+        <v>0.01551226247102022</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0004652737115975469</v>
+        <v>0.0007104217074811459</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.001013932167552412</v>
+        <v>0.004836912266910076</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0001108989090425894</v>
+        <v>0.0101972296833992</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.002782769966870546</v>
+        <v>0.01348243094980717</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.001517863944172859</v>
+        <v>0.03572700917720795</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.001888206112198532</v>
+        <v>0.01130735781043768</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0003693148610182106</v>
+        <v>0.007187223993241787</v>
       </c>
       <c r="EJ4" t="n">
-        <v>5.523953586816788e-05</v>
+        <v>8.202483877539635e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.002329281996935606</v>
+        <v>0.02313658222556114</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0002574340614955872</v>
+        <v>0.01592731103301048</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.00136131641920656</v>
+        <v>0.006859187036752701</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.000975746545009315</v>
+        <v>0.01097701955586672</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0009875904070213437</v>
+        <v>0.001153502613306046</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.001642347313463688</v>
+        <v>0.01492869574576616</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0003334955545142293</v>
+        <v>0.01754457503557205</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.0003420895664021373</v>
+        <v>0.02199815027415752</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.00113898073323071</v>
+        <v>0.01740813255310059</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0006911924574524164</v>
+        <v>0.02959133125841618</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0002714526781346649</v>
+        <v>0.03905221074819565</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.0003704000846482813</v>
+        <v>0.06678984314203262</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0004170464526396245</v>
+        <v>0.005901198834180832</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.001783405430614948</v>
+        <v>0.004123020451515913</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.00178921059705317</v>
+        <v>0.02567833662033081</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.001729546347633004</v>
+        <v>0.0155309671536088</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.00018482786254026</v>
+        <v>0.02027012594044209</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0009271296439692378</v>
+        <v>0.004942032974213362</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.0003031105734407902</v>
+        <v>0.02759478241205215</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.0001820999605115503</v>
+        <v>0.02859637886285782</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.0002517304965294898</v>
+        <v>0.01527217030525208</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.0004425104707479477</v>
+        <v>0.02188032492995262</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0007984678377397358</v>
+        <v>0.01078008860349655</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0007321364246308804</v>
+        <v>0.007210119161754847</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.002241194015368819</v>
+        <v>0.01567903906106949</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.001824753009714186</v>
+        <v>0.03749755769968033</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.00028949324041605</v>
+        <v>0.008984709158539772</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0009896333795040846</v>
+        <v>0.01825453341007233</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0001956210908247158</v>
+        <v>0.0005547641776502132</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0005339474882930517</v>
+        <v>0.01815658807754517</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0001519985671620816</v>
+        <v>0.01698459312319756</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.001204065047204494</v>
+        <v>0.01559801958501339</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.004131595604121685</v>
+        <v>0.03934814780950546</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0009697837522253394</v>
+        <v>0.03251191973686218</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0006154091679491103</v>
+        <v>0.0003659832291305065</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0009060954907909036</v>
+        <v>0.004876871593296528</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.00122242362704128</v>
+        <v>0.01117378659546375</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0002680585021153092</v>
+        <v>0.02655639685690403</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.0004139808879699558</v>
+        <v>0.004022484645247459</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0003287360304966569</v>
+        <v>0.01491651218384504</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.001270757522433996</v>
+        <v>0.04654818028211594</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.001158475875854492</v>
+        <v>0.01586588658392429</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0009306570864282548</v>
+        <v>0.02829737588763237</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0002581136650405824</v>
+        <v>0.01245159562677145</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.001650955993682146</v>
+        <v>0.01304948329925537</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.0001113282633014023</v>
+        <v>0.01801168918609619</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0006679372163489461</v>
+        <v>0.1004845723509789</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0001110300290747546</v>
+        <v>0.001938051544129848</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0009286368731409311</v>
+        <v>0.004058975260704756</v>
       </c>
     </row>
     <row r="5">
@@ -3849,1140 +3849,1140 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0002018275263253599</v>
+        <v>0.000144314777571708</v>
       </c>
       <c r="B7" t="n">
-        <v>1.230780617333949e-05</v>
+        <v>0.001869396190159023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002282050118083134</v>
+        <v>0.0001237125543411821</v>
       </c>
       <c r="D7" t="n">
-        <v>5.510240953299217e-05</v>
+        <v>0.000392859656130895</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001074143801815808</v>
+        <v>0.0004673385119531304</v>
       </c>
       <c r="F7" t="n">
-        <v>9.533481716061942e-06</v>
+        <v>0.0004175872600171715</v>
       </c>
       <c r="G7" t="n">
-        <v>6.445926555898041e-05</v>
+        <v>0.000289405114017427</v>
       </c>
       <c r="H7" t="n">
-        <v>3.376936365384609e-05</v>
+        <v>0.0002337529003852978</v>
       </c>
       <c r="I7" t="n">
-        <v>7.148427539505064e-05</v>
+        <v>0.0002795870532281697</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001941232330864295</v>
+        <v>0.0002041987463599071</v>
       </c>
       <c r="K7" t="n">
-        <v>1.701804831100162e-05</v>
+        <v>0.001648076227866113</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002418596559436992</v>
+        <v>4.456980605027638e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>2.753449189185631e-05</v>
+        <v>0.0002343781525269151</v>
       </c>
       <c r="N7" t="n">
-        <v>2.715946902753785e-05</v>
+        <v>7.928599370643497e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.501446513429983e-05</v>
+        <v>0.0003300730313640088</v>
       </c>
       <c r="P7" t="n">
-        <v>5.43569985893555e-05</v>
+        <v>0.0001585933787282556</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.92928588250652e-05</v>
+        <v>0.0001919291680678725</v>
       </c>
       <c r="R7" t="n">
-        <v>8.418651850661263e-05</v>
+        <v>0.0003656261833384633</v>
       </c>
       <c r="S7" t="n">
-        <v>1.595839421497658e-06</v>
+        <v>8.659066224936396e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>6.108170055085793e-05</v>
+        <v>0.0002210674429079518</v>
       </c>
       <c r="U7" t="n">
-        <v>7.13496956450399e-06</v>
+        <v>6.789417966501787e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>2.349580790905748e-05</v>
+        <v>0.0001651412167120725</v>
       </c>
       <c r="W7" t="n">
-        <v>8.523353471900919e-07</v>
+        <v>0.0002051943447440863</v>
       </c>
       <c r="X7" t="n">
-        <v>1.090348359866766e-05</v>
+        <v>6.040728112566285e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.573038935021032e-05</v>
+        <v>2.820397821778897e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.70256527478341e-05</v>
+        <v>0.0003487916255835444</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.399967449193355e-06</v>
+        <v>0.0001241104037035257</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.55022483645007e-06</v>
+        <v>0.000136229646159336</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.172232259705197e-05</v>
+        <v>0.0001441746426280588</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.682300641434267e-06</v>
+        <v>1.813095877878368e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.722522887983359e-05</v>
+        <v>9.937054710462689e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.240937182155903e-06</v>
+        <v>6.070603194530122e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.312314361712197e-05</v>
+        <v>5.553246955969371e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.26116083265515e-05</v>
+        <v>5.011488974560052e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>7.210300827864558e-05</v>
+        <v>6.951438263058662e-05</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.141598714748397e-05</v>
+        <v>4.024465306429192e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>4.556796193355694e-05</v>
+        <v>0.0003018919960595667</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.382800009101629e-05</v>
+        <v>0.0001816431031329557</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.160461190214846e-05</v>
+        <v>3.401021604076959e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.215419514570385e-05</v>
+        <v>0.0001500809448771179</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.774193025194108e-06</v>
+        <v>0.0001624881697352976</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.626133421785198e-06</v>
+        <v>0.00012848453479819</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6.170252504489326e-07</v>
+        <v>0.0001283932651858777</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.485608820279595e-05</v>
+        <v>1.588609666214325e-05</v>
       </c>
       <c r="AS7" t="n">
-        <v>5.402743227023166e-06</v>
+        <v>0.0001367280056001619</v>
       </c>
       <c r="AT7" t="n">
-        <v>8.920317486627027e-05</v>
+        <v>3.662845119833946e-05</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.87310862808954e-05</v>
+        <v>0.001121829729527235</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.000112744135549292</v>
+        <v>0.0001618846436031163</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.883694080286659e-05</v>
+        <v>8.812497981125489e-05</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.497946979929111e-06</v>
+        <v>7.229076436487958e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>7.420632755383849e-05</v>
+        <v>0.0001172524498542771</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.78667539532762e-05</v>
+        <v>0.0004197589005343616</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.208310954505578e-05</v>
+        <v>0.0001679434790275991</v>
       </c>
       <c r="BB7" t="n">
-        <v>6.461687007686123e-06</v>
+        <v>0.0001625605946173891</v>
       </c>
       <c r="BC7" t="n">
-        <v>3.057321009691805e-05</v>
+        <v>3.578893665689975e-05</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.431243723956868e-06</v>
+        <v>0.0002903149579651654</v>
       </c>
       <c r="BE7" t="n">
-        <v>8.166588668245822e-05</v>
+        <v>0.0002992796071339399</v>
       </c>
       <c r="BF7" t="n">
-        <v>6.676206794509199e-06</v>
+        <v>9.877493721432984e-05</v>
       </c>
       <c r="BG7" t="n">
-        <v>4.618758975993842e-05</v>
+        <v>0.000282326975138858</v>
       </c>
       <c r="BH7" t="n">
-        <v>1.236641310242703e-05</v>
+        <v>0.0002185789489885792</v>
       </c>
       <c r="BI7" t="n">
-        <v>6.923626642674208e-05</v>
+        <v>5.221756873652339e-05</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.340009061503224e-05</v>
+        <v>0.0002228934463346377</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.284543916175608e-05</v>
+        <v>0.0003162974899169058</v>
       </c>
       <c r="BL7" t="n">
-        <v>8.360993888345547e-06</v>
+        <v>0.0001090959849534556</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.367539789498551e-05</v>
+        <v>0.0001654686639085412</v>
       </c>
       <c r="BN7" t="n">
-        <v>4.41333104390651e-05</v>
+        <v>4.707854895968921e-05</v>
       </c>
       <c r="BO7" t="n">
-        <v>7.348397502937587e-06</v>
+        <v>8.407361747231334e-05</v>
       </c>
       <c r="BP7" t="n">
-        <v>4.181743497611023e-05</v>
+        <v>8.476828952552751e-05</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.062846968125086e-05</v>
+        <v>2.976757787109818e-05</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.614314533071592e-05</v>
+        <v>0.0001225361338583753</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.72513422917109e-05</v>
+        <v>2.372489143454004e-05</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.649204932618886e-06</v>
+        <v>8.294339932035655e-05</v>
       </c>
       <c r="BU7" t="n">
-        <v>8.356136822840199e-05</v>
+        <v>3.47357417922467e-05</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.678463740972802e-05</v>
+        <v>0.0006513716070912778</v>
       </c>
       <c r="BW7" t="n">
-        <v>4.269081910024397e-05</v>
+        <v>0.0001497179036960006</v>
       </c>
       <c r="BX7" t="n">
-        <v>3.644985918072052e-05</v>
+        <v>8.579660061514005e-05</v>
       </c>
       <c r="BY7" t="n">
-        <v>4.443663783604279e-05</v>
+        <v>7.057842594804242e-05</v>
       </c>
       <c r="BZ7" t="n">
-        <v>2.134878377546556e-05</v>
+        <v>8.509851795679424e-06</v>
       </c>
       <c r="CA7" t="n">
-        <v>8.330844138981774e-07</v>
+        <v>5.072478234069422e-05</v>
       </c>
       <c r="CB7" t="n">
-        <v>3.897648184647551e-06</v>
+        <v>3.524679414113052e-06</v>
       </c>
       <c r="CC7" t="n">
-        <v>3.847136395052075e-05</v>
+        <v>4.377466029836796e-05</v>
       </c>
       <c r="CD7" t="n">
-        <v>4.316554259276018e-05</v>
+        <v>8.167060877894983e-05</v>
       </c>
       <c r="CE7" t="n">
-        <v>4.942718805978075e-05</v>
+        <v>0.0003189050767105073</v>
       </c>
       <c r="CF7" t="n">
-        <v>4.890590935247019e-05</v>
+        <v>6.631863652728498e-05</v>
       </c>
       <c r="CG7" t="n">
-        <v>4.998997610528022e-06</v>
+        <v>4.623439235729165e-05</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.03765605672379e-05</v>
+        <v>6.810612831031904e-05</v>
       </c>
       <c r="CI7" t="n">
-        <v>1.85990229510935e-05</v>
+        <v>1.166157835541526e-05</v>
       </c>
       <c r="CJ7" t="n">
-        <v>7.907503459136933e-06</v>
+        <v>0.0001224772859131917</v>
       </c>
       <c r="CK7" t="n">
-        <v>8.383004569623154e-06</v>
+        <v>5.08287557750009e-05</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.784029791451758e-06</v>
+        <v>8.686283399583772e-05</v>
       </c>
       <c r="CM7" t="n">
-        <v>8.542579053028021e-06</v>
+        <v>0.0004538365465123206</v>
       </c>
       <c r="CN7" t="n">
-        <v>5.658088048221543e-05</v>
+        <v>6.880261935293674e-05</v>
       </c>
       <c r="CO7" t="n">
-        <v>2.172406493627932e-05</v>
+        <v>7.271065260283649e-05</v>
       </c>
       <c r="CP7" t="n">
-        <v>1.810592038964387e-05</v>
+        <v>0.0005464509013108909</v>
       </c>
       <c r="CQ7" t="n">
-        <v>2.295614467584528e-05</v>
+        <v>0.0003382407012395561</v>
       </c>
       <c r="CR7" t="n">
-        <v>1.074403098755283e-05</v>
+        <v>0.0004243392031639814</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.005082140181912e-06</v>
+        <v>0.0003089748206548393</v>
       </c>
       <c r="CT7" t="n">
-        <v>4.670039743359666e-06</v>
+        <v>0.0001630076149012893</v>
       </c>
       <c r="CU7" t="n">
-        <v>1.366336073260754e-05</v>
+        <v>0.0002466056030243635</v>
       </c>
       <c r="CV7" t="n">
-        <v>3.997203384642489e-05</v>
+        <v>7.479024498024955e-05</v>
       </c>
       <c r="CW7" t="n">
-        <v>4.531205195235088e-05</v>
+        <v>0.0003035457921214402</v>
       </c>
       <c r="CX7" t="n">
-        <v>5.329248961061239e-05</v>
+        <v>6.857843982288614e-05</v>
       </c>
       <c r="CY7" t="n">
-        <v>8.288486128549266e-07</v>
+        <v>0.0001324387994827703</v>
       </c>
       <c r="CZ7" t="n">
-        <v>3.350371844135225e-05</v>
+        <v>9.321765537606552e-05</v>
       </c>
       <c r="DA7" t="n">
-        <v>1.977692227228545e-05</v>
+        <v>3.159762491122819e-05</v>
       </c>
       <c r="DB7" t="n">
-        <v>8.034272468648851e-06</v>
+        <v>0.0001223819999722764</v>
       </c>
       <c r="DC7" t="n">
-        <v>5.36633342562709e-06</v>
+        <v>9.424450399819762e-05</v>
       </c>
       <c r="DD7" t="n">
-        <v>5.493707249115687e-06</v>
+        <v>0.0001018870752886869</v>
       </c>
       <c r="DE7" t="n">
-        <v>9.330737157142721e-06</v>
+        <v>0.0001602504344191402</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0001055442480719648</v>
+        <v>0.0002697846502996981</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.641989158291835e-05</v>
+        <v>0.0001060251670423895</v>
       </c>
       <c r="DH7" t="n">
-        <v>1.032067848427687e-05</v>
+        <v>0.0002537966065574437</v>
       </c>
       <c r="DI7" t="n">
-        <v>3.377946268301457e-05</v>
+        <v>0.0005414252518676221</v>
       </c>
       <c r="DJ7" t="n">
-        <v>9.660339856054634e-06</v>
+        <v>0.0007134765619412065</v>
       </c>
       <c r="DK7" t="n">
-        <v>7.026429557299707e-06</v>
+        <v>6.012119411025196e-05</v>
       </c>
       <c r="DL7" t="n">
-        <v>9.859468264039606e-08</v>
+        <v>9.285258420277387e-05</v>
       </c>
       <c r="DM7" t="n">
-        <v>1.938375135068782e-05</v>
+        <v>0.0004017963947262615</v>
       </c>
       <c r="DN7" t="n">
-        <v>5.320871423464268e-06</v>
+        <v>0.0001132622419390827</v>
       </c>
       <c r="DO7" t="n">
-        <v>6.570289406226948e-05</v>
+        <v>0.0001103864924516529</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.726858499750961e-05</v>
+        <v>0.0001525800325907767</v>
       </c>
       <c r="DQ7" t="n">
-        <v>8.359993444173597e-07</v>
+        <v>0.0001601546246092767</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.309204981225776e-05</v>
+        <v>7.784319313941523e-05</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.298789902648423e-05</v>
+        <v>8.210854139178991e-05</v>
       </c>
       <c r="DT7" t="n">
-        <v>4.593862286128569e-07</v>
+        <v>0.0002380119840381667</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.018851435219403e-05</v>
+        <v>0.0001968070573639125</v>
       </c>
       <c r="DV7" t="n">
-        <v>5.198927283345256e-06</v>
+        <v>0.0001036545509123243</v>
       </c>
       <c r="DW7" t="n">
-        <v>1.729650102788582e-05</v>
+        <v>4.389646710478701e-05</v>
       </c>
       <c r="DX7" t="n">
-        <v>1.630862971069291e-05</v>
+        <v>0.0002336534962523729</v>
       </c>
       <c r="DY7" t="n">
-        <v>8.554836767871166e-07</v>
+        <v>6.561427289852872e-05</v>
       </c>
       <c r="DZ7" t="n">
-        <v>4.361540050012991e-06</v>
+        <v>0.0002411552704870701</v>
       </c>
       <c r="EA7" t="n">
-        <v>3.781507984967902e-05</v>
+        <v>0.000179271912202239</v>
       </c>
       <c r="EB7" t="n">
-        <v>9.743599548528437e-06</v>
+        <v>6.672294693998992e-05</v>
       </c>
       <c r="EC7" t="n">
-        <v>3.82430062018102e-06</v>
+        <v>3.868046042043716e-05</v>
       </c>
       <c r="ED7" t="n">
-        <v>2.747302096395288e-05</v>
+        <v>0.0001862592907855287</v>
       </c>
       <c r="EE7" t="n">
-        <v>2.718006726354361e-07</v>
+        <v>0.0003856640250887722</v>
       </c>
       <c r="EF7" t="n">
-        <v>6.075008423067629e-05</v>
+        <v>0.0002549297641962767</v>
       </c>
       <c r="EG7" t="n">
-        <v>4.063480446347967e-05</v>
+        <v>0.0004440037009771913</v>
       </c>
       <c r="EH7" t="n">
-        <v>4.680265919887461e-05</v>
+        <v>2.573709934949875e-05</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.646874079597183e-05</v>
+        <v>1.034650631481782e-05</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.062431329046376e-05</v>
+        <v>4.685897238232428e-06</v>
       </c>
       <c r="EK7" t="n">
-        <v>5.242905535851605e-05</v>
+        <v>0.0002432379842502996</v>
       </c>
       <c r="EL7" t="n">
-        <v>5.065975528850686e-06</v>
+        <v>0.000168841754202731</v>
       </c>
       <c r="EM7" t="n">
-        <v>3.751046460820362e-05</v>
+        <v>9.037042764248326e-05</v>
       </c>
       <c r="EN7" t="n">
-        <v>2.087114989990368e-05</v>
+        <v>2.785430297080893e-05</v>
       </c>
       <c r="EO7" t="n">
-        <v>1.868950312200468e-05</v>
+        <v>8.689709648024291e-05</v>
       </c>
       <c r="EP7" t="n">
-        <v>2.702551319089253e-05</v>
+        <v>0.0001167322843684815</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.111739402404055e-05</v>
+        <v>0.0001265308383153751</v>
       </c>
       <c r="ER7" t="n">
-        <v>7.414115316350944e-06</v>
+        <v>0.0001812790287658572</v>
       </c>
       <c r="ES7" t="n">
-        <v>2.242824120912701e-05</v>
+        <v>0.0001911258441396058</v>
       </c>
       <c r="ET7" t="n">
-        <v>2.981530451506842e-05</v>
+        <v>1.449551928089932e-05</v>
       </c>
       <c r="EU7" t="n">
-        <v>3.187945185345598e-05</v>
+        <v>0.000333867414155975</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.465260174882133e-05</v>
+        <v>0.0002429642336210236</v>
       </c>
       <c r="EW7" t="n">
-        <v>2.444132587697823e-05</v>
+        <v>0.0001060033100657165</v>
       </c>
       <c r="EX7" t="n">
-        <v>3.940361057175323e-05</v>
+        <v>9.93850699160248e-05</v>
       </c>
       <c r="EY7" t="n">
-        <v>4.171447653789073e-05</v>
+        <v>0.0003124684153590351</v>
       </c>
       <c r="EZ7" t="n">
-        <v>5.10315912833903e-05</v>
+        <v>5.056027293903753e-05</v>
       </c>
       <c r="FA7" t="n">
-        <v>3.193606517015724e-07</v>
+        <v>2.398886499577202e-05</v>
       </c>
       <c r="FB7" t="n">
-        <v>2.464599128870759e-05</v>
+        <v>6.406837928807363e-05</v>
       </c>
       <c r="FC7" t="n">
-        <v>4.972023816662841e-06</v>
+        <v>9.515457350062206e-06</v>
       </c>
       <c r="FD7" t="n">
-        <v>9.671343832451385e-06</v>
+        <v>0.0001864988298621029</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.196887023979798e-05</v>
+        <v>7.94623265392147e-05</v>
       </c>
       <c r="FF7" t="n">
-        <v>1.184643679152941e-05</v>
+        <v>0.0001460718340240419</v>
       </c>
       <c r="FG7" t="n">
-        <v>3.037963870156091e-05</v>
+        <v>9.368343307869509e-05</v>
       </c>
       <c r="FH7" t="n">
-        <v>3.68538803741103e-06</v>
+        <v>9.774856880540028e-05</v>
       </c>
       <c r="FI7" t="n">
-        <v>4.405785875860602e-05</v>
+        <v>0.0001715690596029162</v>
       </c>
       <c r="FJ7" t="n">
-        <v>3.773169373744167e-05</v>
+        <v>0.0002771826984826475</v>
       </c>
       <c r="FK7" t="n">
-        <v>5.598898496828042e-06</v>
+        <v>0.0001200075348606333</v>
       </c>
       <c r="FL7" t="n">
-        <v>2.745460369624197e-05</v>
+        <v>3.753237979253754e-05</v>
       </c>
       <c r="FM7" t="n">
-        <v>9.636157301429193e-06</v>
+        <v>0.0001360860042041168</v>
       </c>
       <c r="FN7" t="n">
-        <v>5.544709438254358e-06</v>
+        <v>7.71599734434858e-05</v>
       </c>
       <c r="FO7" t="n">
-        <v>1.249771685252199e-05</v>
+        <v>0.0001498602796345949</v>
       </c>
       <c r="FP7" t="n">
-        <v>6.711852620355785e-07</v>
+        <v>0.0002710186818148941</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0001130644232034683</v>
+        <v>0.0001263443264178932</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.826650441216771e-05</v>
+        <v>0.0002092294016620144</v>
       </c>
       <c r="FS7" t="n">
-        <v>2.956400567200035e-05</v>
+        <v>0.0002723265788517892</v>
       </c>
       <c r="FT7" t="n">
-        <v>7.215830919449218e-06</v>
+        <v>3.111476326012053e-05</v>
       </c>
       <c r="FU7" t="n">
-        <v>2.082965329464059e-05</v>
+        <v>0.0002428536681691185</v>
       </c>
       <c r="FV7" t="n">
-        <v>6.871268851682544e-07</v>
+        <v>7.982909301063046e-05</v>
       </c>
       <c r="FW7" t="n">
-        <v>1.037475612974958e-06</v>
+        <v>8.873403203324415e-07</v>
       </c>
       <c r="FX7" t="n">
-        <v>8.439292287221178e-06</v>
+        <v>8.96219426067546e-05</v>
       </c>
       <c r="FY7" t="n">
-        <v>2.415979361103382e-05</v>
+        <v>0.0003071661340072751</v>
       </c>
       <c r="FZ7" t="n">
-        <v>8.128862646117341e-06</v>
+        <v>8.165003237081692e-05</v>
       </c>
       <c r="GA7" t="n">
-        <v>2.843431957444409e-06</v>
+        <v>6.751508772140369e-05</v>
       </c>
       <c r="GB7" t="n">
-        <v>3.934303094865754e-06</v>
+        <v>1.665238960413262e-05</v>
       </c>
       <c r="GC7" t="n">
-        <v>3.535014184308238e-05</v>
+        <v>9.690553997643292e-05</v>
       </c>
       <c r="GD7" t="n">
-        <v>3.64547195204068e-05</v>
+        <v>0.0001629586913622916</v>
       </c>
       <c r="GE7" t="n">
-        <v>6.189626674313331e-06</v>
+        <v>1.806791988201439e-05</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.446545502403751e-05</v>
+        <v>0.0001598936360096559</v>
       </c>
       <c r="GG7" t="n">
-        <v>9.810501069296151e-06</v>
+        <v>0.0001296707923756912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.169228875776753e-05</v>
+        <v>0.00167021865490824</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000100819488579873</v>
+        <v>9.457235137233511e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001828414970077574</v>
+        <v>0.0001039326598402113</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001519345096312463</v>
+        <v>0.0004113095346838236</v>
       </c>
       <c r="E8" t="n">
-        <v>1.421246270183474e-05</v>
+        <v>8.604559843661264e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>3.776945595745929e-05</v>
+        <v>0.001741273095831275</v>
       </c>
       <c r="G8" t="n">
-        <v>7.449634722433984e-05</v>
+        <v>0.0002676239528227597</v>
       </c>
       <c r="H8" t="n">
-        <v>8.52013545227237e-06</v>
+        <v>0.0008560880087316036</v>
       </c>
       <c r="I8" t="n">
-        <v>3.823844599537551e-05</v>
+        <v>3.276838469901122e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.356483648531139e-05</v>
+        <v>0.001234577037394047</v>
       </c>
       <c r="K8" t="n">
-        <v>5.677435547113419e-05</v>
+        <v>0.0001699691492831334</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002034642093349248</v>
+        <v>2.443724952172488e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0001371781836496666</v>
+        <v>0.000219470530282706</v>
       </c>
       <c r="N8" t="n">
-        <v>9.401339048054069e-05</v>
+        <v>0.000489481317345053</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05478190764552e-05</v>
+        <v>0.001377980457618833</v>
       </c>
       <c r="P8" t="n">
-        <v>1.959125256689731e-05</v>
+        <v>0.0006541566690430045</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.713620753842406e-05</v>
+        <v>0.000984865939244628</v>
       </c>
       <c r="R8" t="n">
-        <v>2.635965029185172e-05</v>
+        <v>0.0001051660001394339</v>
       </c>
       <c r="S8" t="n">
-        <v>3.387917786312755e-06</v>
+        <v>0.0001898791088024154</v>
       </c>
       <c r="T8" t="n">
-        <v>1.616669578652363e-05</v>
+        <v>0.0005104299052618444</v>
       </c>
       <c r="U8" t="n">
-        <v>5.836147465743124e-06</v>
+        <v>3.203335654688999e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.105805495171808e-05</v>
+        <v>0.0004628211027011275</v>
       </c>
       <c r="W8" t="n">
-        <v>8.278719906229526e-05</v>
+        <v>0.0006969345267862082</v>
       </c>
       <c r="X8" t="n">
-        <v>2.090544148813933e-05</v>
+        <v>0.0003153313009534031</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.273500831506681e-05</v>
+        <v>0.0003236066550016403</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.6239958970109e-06</v>
+        <v>0.0001597583468537778</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.828651875257492e-05</v>
+        <v>8.049503958318383e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.615268673864193e-05</v>
+        <v>0.0003404128656256944</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.657908382592723e-05</v>
+        <v>0.0003432836092542857</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.886487320414744e-05</v>
+        <v>0.0001445720554329455</v>
       </c>
       <c r="AE8" t="n">
-        <v>4.657420868170448e-05</v>
+        <v>9.105939534492791e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.612646004417911e-05</v>
+        <v>1.436747697880492e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.101769784232602e-05</v>
+        <v>0.0002059012185782194</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.593689376022667e-05</v>
+        <v>1.703036105027422e-05</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.13657028527814e-06</v>
+        <v>0.0002679356839507818</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.923517452785745e-05</v>
+        <v>4.354572593001649e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>6.154346920084208e-05</v>
+        <v>0.0003242402744945139</v>
       </c>
       <c r="AL8" t="n">
-        <v>4.771201201947406e-05</v>
+        <v>6.94378322805278e-05</v>
       </c>
       <c r="AM8" t="n">
-        <v>3.141593333566561e-05</v>
+        <v>0.000275331549346447</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.598859833204187e-06</v>
+        <v>0.000114569251309149</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.299694758927217e-06</v>
+        <v>0.0001353005063720047</v>
       </c>
       <c r="AP8" t="n">
-        <v>5.008853622712195e-05</v>
+        <v>3.333595668664202e-05</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.470341425781953e-06</v>
+        <v>0.0001418007013853639</v>
       </c>
       <c r="AR8" t="n">
-        <v>7.935213943710551e-06</v>
+        <v>7.619181269546971e-05</v>
       </c>
       <c r="AS8" t="n">
-        <v>8.234623237513006e-06</v>
+        <v>1.997238905460108e-05</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.789467518799938e-05</v>
+        <v>0.0009070850792340934</v>
       </c>
       <c r="AU8" t="n">
-        <v>4.653089126804844e-05</v>
+        <v>0.000221832815441303</v>
       </c>
       <c r="AV8" t="n">
-        <v>7.672791252844036e-05</v>
+        <v>8.402916137129068e-06</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.880404670373537e-05</v>
+        <v>0.0004851377452723682</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.957875641295686e-05</v>
+        <v>0.001159089268185198</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.284173686144641e-05</v>
+        <v>0.0007836536387912929</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5.612855238723569e-05</v>
+        <v>0.000214110070373863</v>
       </c>
       <c r="BA8" t="n">
-        <v>5.35833096364513e-05</v>
+        <v>0.0004195109358988702</v>
       </c>
       <c r="BB8" t="n">
-        <v>3.817936158156954e-05</v>
+        <v>4.156238719588146e-05</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.843292739067692e-05</v>
+        <v>0.000372301583411172</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.601922824396752e-05</v>
+        <v>0.0001624443248147145</v>
       </c>
       <c r="BE8" t="n">
-        <v>3.051207932003308e-05</v>
+        <v>9.064738696906716e-05</v>
       </c>
       <c r="BF8" t="n">
-        <v>3.395794192329049e-05</v>
+        <v>0.000129853084217757</v>
       </c>
       <c r="BG8" t="n">
-        <v>8.660253661219031e-05</v>
+        <v>0.0003903942997567356</v>
       </c>
       <c r="BH8" t="n">
-        <v>8.937448728829622e-05</v>
+        <v>0.0003902594035025686</v>
       </c>
       <c r="BI8" t="n">
-        <v>3.434276368352585e-05</v>
+        <v>0.0003353790671098977</v>
       </c>
       <c r="BJ8" t="n">
-        <v>6.499588198494166e-05</v>
+        <v>0.0004055915051139891</v>
       </c>
       <c r="BK8" t="n">
-        <v>6.383152140188031e-06</v>
+        <v>3.783356805797666e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>3.991005360148847e-05</v>
+        <v>2.205625605711248e-05</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.777151373971719e-05</v>
+        <v>0.0002696837473195046</v>
       </c>
       <c r="BN8" t="n">
-        <v>5.850930028827861e-05</v>
+        <v>9.568194218445569e-05</v>
       </c>
       <c r="BO8" t="n">
-        <v>5.9921867432422e-06</v>
+        <v>0.0004294213431421667</v>
       </c>
       <c r="BP8" t="n">
-        <v>8.731467460165732e-06</v>
+        <v>0.0003837457334157079</v>
       </c>
       <c r="BQ8" t="n">
-        <v>6.387297162291361e-06</v>
+        <v>4.100034857401624e-05</v>
       </c>
       <c r="BR8" t="n">
-        <v>4.19839852838777e-05</v>
+        <v>0.0003631241852417588</v>
       </c>
       <c r="BS8" t="n">
-        <v>2.665470128704328e-05</v>
+        <v>0.0004840173642151058</v>
       </c>
       <c r="BT8" t="n">
-        <v>2.410078013781458e-05</v>
+        <v>0.000231667043408379</v>
       </c>
       <c r="BU8" t="n">
-        <v>5.362507363315672e-05</v>
+        <v>0.0004505117249209434</v>
       </c>
       <c r="BV8" t="n">
-        <v>1.453593722544611e-05</v>
+        <v>0.000261965295067057</v>
       </c>
       <c r="BW8" t="n">
-        <v>4.060312130604871e-05</v>
+        <v>0.000180715651367791</v>
       </c>
       <c r="BX8" t="n">
-        <v>2.649140878929757e-05</v>
+        <v>0.0002590147196315229</v>
       </c>
       <c r="BY8" t="n">
-        <v>7.270071364473552e-05</v>
+        <v>0.0005098658730275929</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1.634532964089885e-05</v>
+        <v>0.000585670059081167</v>
       </c>
       <c r="CA8" t="n">
-        <v>4.220218033879064e-05</v>
+        <v>4.707853804575279e-05</v>
       </c>
       <c r="CB8" t="n">
-        <v>7.806166831869632e-05</v>
+        <v>0.0001970465818885714</v>
       </c>
       <c r="CC8" t="n">
-        <v>6.208168633747846e-05</v>
+        <v>1.544131737318821e-05</v>
       </c>
       <c r="CD8" t="n">
-        <v>3.651864972198382e-05</v>
+        <v>0.0003249882720410824</v>
       </c>
       <c r="CE8" t="n">
-        <v>1.343546045973198e-06</v>
+        <v>0.0002376708289375529</v>
       </c>
       <c r="CF8" t="n">
-        <v>4.054366945638321e-05</v>
+        <v>2.394972034380771e-05</v>
       </c>
       <c r="CG8" t="n">
-        <v>3.426771945669316e-05</v>
+        <v>1.570706444908865e-05</v>
       </c>
       <c r="CH8" t="n">
-        <v>6.925250545464223e-06</v>
+        <v>3.818058030446991e-05</v>
       </c>
       <c r="CI8" t="n">
-        <v>2.222375587734859e-05</v>
+        <v>0.0002575337130110711</v>
       </c>
       <c r="CJ8" t="n">
-        <v>2.27503423957387e-05</v>
+        <v>2.672460686881095e-05</v>
       </c>
       <c r="CK8" t="n">
-        <v>2.15024447243195e-05</v>
+        <v>0.0003021221491508186</v>
       </c>
       <c r="CL8" t="n">
-        <v>1.221920592797687e-05</v>
+        <v>3.335371002322063e-05</v>
       </c>
       <c r="CM8" t="n">
-        <v>1.418374540662626e-05</v>
+        <v>3.04564819089137e-05</v>
       </c>
       <c r="CN8" t="n">
-        <v>3.355487933731638e-05</v>
+        <v>8.544472802896053e-05</v>
       </c>
       <c r="CO8" t="n">
-        <v>3.888883657054976e-05</v>
+        <v>5.306265666149557e-05</v>
       </c>
       <c r="CP8" t="n">
-        <v>3.852974259643815e-05</v>
+        <v>2.838301043084357e-05</v>
       </c>
       <c r="CQ8" t="n">
-        <v>3.102526989096077e-06</v>
+        <v>0.0007699021953158081</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0001109130535041913</v>
+        <v>0.0001226038439199328</v>
       </c>
       <c r="CS8" t="n">
-        <v>6.8250774347689e-05</v>
+        <v>0.0002251061087008566</v>
       </c>
       <c r="CT8" t="n">
-        <v>2.72595261776587e-05</v>
+        <v>6.472003587987274e-05</v>
       </c>
       <c r="CU8" t="n">
-        <v>2.706849591049831e-05</v>
+        <v>0.0001393267011735588</v>
       </c>
       <c r="CV8" t="n">
-        <v>4.184739373158664e-05</v>
+        <v>0.0002993880480062217</v>
       </c>
       <c r="CW8" t="n">
-        <v>3.216205868739053e-06</v>
+        <v>0.0002217972651124001</v>
       </c>
       <c r="CX8" t="n">
-        <v>3.965808355133049e-05</v>
+        <v>4.503293166635558e-05</v>
       </c>
       <c r="CY8" t="n">
-        <v>2.834496626746841e-05</v>
+        <v>9.8626253020484e-05</v>
       </c>
       <c r="CZ8" t="n">
-        <v>8.739967597648501e-06</v>
+        <v>3.361049311934039e-05</v>
       </c>
       <c r="DA8" t="n">
-        <v>1.731540032778867e-05</v>
+        <v>0.0002509529876988381</v>
       </c>
       <c r="DB8" t="n">
-        <v>2.441974720568396e-05</v>
+        <v>9.168230462819338e-06</v>
       </c>
       <c r="DC8" t="n">
-        <v>2.20584242924815e-05</v>
+        <v>0.000317820260534063</v>
       </c>
       <c r="DD8" t="n">
-        <v>1.860772317741066e-05</v>
+        <v>2.331703944946639e-05</v>
       </c>
       <c r="DE8" t="n">
-        <v>1.45759986480698e-05</v>
+        <v>0.0001015603847918101</v>
       </c>
       <c r="DF8" t="n">
-        <v>1.672794860496651e-05</v>
+        <v>4.186153091723099e-06</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0001654194202274084</v>
+        <v>8.462984260404482e-05</v>
       </c>
       <c r="DH8" t="n">
-        <v>6.17829427937977e-05</v>
+        <v>0.0002712910354603082</v>
       </c>
       <c r="DI8" t="n">
-        <v>1.13202549982816e-05</v>
+        <v>0.001021156320348382</v>
       </c>
       <c r="DJ8" t="n">
-        <v>8.201862328860443e-06</v>
+        <v>0.0001048705671564676</v>
       </c>
       <c r="DK8" t="n">
-        <v>8.36286271805875e-05</v>
+        <v>5.082425923319533e-05</v>
       </c>
       <c r="DL8" t="n">
-        <v>7.482988439733163e-05</v>
+        <v>0.0004910093848593533</v>
       </c>
       <c r="DM8" t="n">
-        <v>2.883393790398259e-07</v>
+        <v>0.0003435872786212713</v>
       </c>
       <c r="DN8" t="n">
-        <v>7.260393431351986e-06</v>
+        <v>0.0001932077575474977</v>
       </c>
       <c r="DO8" t="n">
-        <v>4.621335392585024e-05</v>
+        <v>9.108742233365774e-05</v>
       </c>
       <c r="DP8" t="n">
-        <v>1.459133090975229e-05</v>
+        <v>0.0001477284531574696</v>
       </c>
       <c r="DQ8" t="n">
-        <v>1.607897138455883e-05</v>
+        <v>0.0002956194803118706</v>
       </c>
       <c r="DR8" t="n">
-        <v>3.903358447132632e-05</v>
+        <v>0.0002545712632127106</v>
       </c>
       <c r="DS8" t="n">
-        <v>1.170213090517791e-05</v>
+        <v>0.0002335230819880962</v>
       </c>
       <c r="DT8" t="n">
-        <v>2.635548844409641e-05</v>
+        <v>1.033703301800415e-05</v>
       </c>
       <c r="DU8" t="n">
-        <v>2.221153044956736e-05</v>
+        <v>0.0004397512238938361</v>
       </c>
       <c r="DV8" t="n">
-        <v>1.920760587381665e-05</v>
+        <v>0.0001359848247375339</v>
       </c>
       <c r="DW8" t="n">
-        <v>2.928713365690783e-05</v>
+        <v>2.156382834073156e-06</v>
       </c>
       <c r="DX8" t="n">
-        <v>1.811288893804885e-05</v>
+        <v>0.000174379616510123</v>
       </c>
       <c r="DY8" t="n">
-        <v>1.955627703864593e-05</v>
+        <v>8.831164450384676e-06</v>
       </c>
       <c r="DZ8" t="n">
-        <v>7.008693501120433e-06</v>
+        <v>0.0001053648957167752</v>
       </c>
       <c r="EA8" t="n">
-        <v>3.81233257940039e-05</v>
+        <v>6.966355431359261e-05</v>
       </c>
       <c r="EB8" t="n">
-        <v>2.610227784316521e-05</v>
+        <v>0.0004054703167639673</v>
       </c>
       <c r="EC8" t="n">
-        <v>2.225474963779561e-05</v>
+        <v>0.0002119124983437359</v>
       </c>
       <c r="ED8" t="n">
-        <v>1.647101635171566e-05</v>
+        <v>0.000367523287422955</v>
       </c>
       <c r="EE8" t="n">
-        <v>1.551749846839812e-05</v>
+        <v>0.0001539886288810521</v>
       </c>
       <c r="EF8" t="n">
-        <v>4.398385499371216e-05</v>
+        <v>0.0002663191989995539</v>
       </c>
       <c r="EG8" t="n">
-        <v>4.869426629738882e-05</v>
+        <v>0.0004039595078211278</v>
       </c>
       <c r="EH8" t="n">
-        <v>4.536995402304456e-05</v>
+        <v>1.525594143458875e-05</v>
       </c>
       <c r="EI8" t="n">
-        <v>4.503093441599049e-05</v>
+        <v>0.0001829966640798375</v>
       </c>
       <c r="EJ8" t="n">
-        <v>5.079372931504622e-05</v>
+        <v>0.0001377759617753327</v>
       </c>
       <c r="EK8" t="n">
-        <v>4.034228186355904e-05</v>
+        <v>0.0001358421868644655</v>
       </c>
       <c r="EL8" t="n">
-        <v>1.642334245843813e-05</v>
+        <v>4.225572774885222e-05</v>
       </c>
       <c r="EM8" t="n">
-        <v>2.943009712907951e-05</v>
+        <v>1.93957475858042e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>1.31093083837186e-05</v>
+        <v>6.253326864680275e-05</v>
       </c>
       <c r="EO8" t="n">
-        <v>2.153304922103416e-05</v>
+        <v>9.829392365645617e-05</v>
       </c>
       <c r="EP8" t="n">
-        <v>2.140250217053108e-05</v>
+        <v>0.0003070847596973181</v>
       </c>
       <c r="EQ8" t="n">
-        <v>1.689230884949211e-05</v>
+        <v>7.616166840307415e-05</v>
       </c>
       <c r="ER8" t="n">
-        <v>1.395081199007109e-05</v>
+        <v>0.000132653716718778</v>
       </c>
       <c r="ES8" t="n">
-        <v>1.209519905387424e-05</v>
+        <v>0.0004557844949886203</v>
       </c>
       <c r="ET8" t="n">
-        <v>6.943954758753534e-06</v>
+        <v>8.481410623062402e-05</v>
       </c>
       <c r="EU8" t="n">
-        <v>4.864828224526718e-05</v>
+        <v>2.369064895901829e-05</v>
       </c>
       <c r="EV8" t="n">
-        <v>2.052272611763328e-05</v>
+        <v>6.031319935573265e-05</v>
       </c>
       <c r="EW8" t="n">
-        <v>8.521159543306567e-06</v>
+        <v>2.31600170081947e-05</v>
       </c>
       <c r="EX8" t="n">
-        <v>4.251352947903797e-05</v>
+        <v>0.0002573538513388485</v>
       </c>
       <c r="EY8" t="n">
-        <v>3.711374802151113e-06</v>
+        <v>0.0001832035486586392</v>
       </c>
       <c r="EZ8" t="n">
-        <v>4.137479118071496e-05</v>
+        <v>4.149982851231471e-05</v>
       </c>
       <c r="FA8" t="n">
-        <v>3.026760896318592e-05</v>
+        <v>7.206894224509597e-05</v>
       </c>
       <c r="FB8" t="n">
-        <v>3.296140221209498e-06</v>
+        <v>7.042604556772858e-05</v>
       </c>
       <c r="FC8" t="n">
-        <v>1.668774348217994e-05</v>
+        <v>0.0002192361571360379</v>
       </c>
       <c r="FD8" t="n">
-        <v>3.294640191597864e-05</v>
+        <v>5.375863838708028e-05</v>
       </c>
       <c r="FE8" t="n">
-        <v>1.782213803380728e-05</v>
+        <v>0.0004133410402573645</v>
       </c>
       <c r="FF8" t="n">
-        <v>3.637069767137291e-06</v>
+        <v>5.782567313872278e-07</v>
       </c>
       <c r="FG8" t="n">
-        <v>1.606206569704227e-05</v>
+        <v>0.0001954740146175027</v>
       </c>
       <c r="FH8" t="n">
-        <v>3.616597678046674e-05</v>
+        <v>0.0002578626153990626</v>
       </c>
       <c r="FI8" t="n">
-        <v>2.287211282236967e-05</v>
+        <v>0.000141154756420292</v>
       </c>
       <c r="FJ8" t="n">
-        <v>2.346152905374765e-05</v>
+        <v>6.83922553434968e-05</v>
       </c>
       <c r="FK8" t="n">
-        <v>1.611143670743331e-05</v>
+        <v>0.0001891303836600855</v>
       </c>
       <c r="FL8" t="n">
-        <v>1.116368366638198e-05</v>
+        <v>0.0002186479250667617</v>
       </c>
       <c r="FM8" t="n">
-        <v>2.010842399613466e-05</v>
+        <v>5.577541378443129e-05</v>
       </c>
       <c r="FN8" t="n">
-        <v>4.39399154856801e-05</v>
+        <v>0.0001239460834767669</v>
       </c>
       <c r="FO8" t="n">
-        <v>2.286144626850728e-05</v>
+        <v>6.068305083317682e-06</v>
       </c>
       <c r="FP8" t="n">
-        <v>1.239204357261769e-05</v>
+        <v>0.0001530023582745343</v>
       </c>
       <c r="FQ8" t="n">
-        <v>7.685751188546419e-05</v>
+        <v>0.00013038631004747</v>
       </c>
       <c r="FR8" t="n">
-        <v>4.364793130662292e-05</v>
+        <v>1.128824078477919e-05</v>
       </c>
       <c r="FS8" t="n">
-        <v>8.465781320410315e-07</v>
+        <v>0.0004744056495837867</v>
       </c>
       <c r="FT8" t="n">
-        <v>1.399587563355453e-05</v>
+        <v>2.861343455151655e-05</v>
       </c>
       <c r="FU8" t="n">
-        <v>4.46884187113028e-05</v>
+        <v>0.0004335285630077124</v>
       </c>
       <c r="FV8" t="n">
-        <v>4.997764335712418e-07</v>
+        <v>0.000273186044069007</v>
       </c>
       <c r="FW8" t="n">
-        <v>6.782875425415114e-05</v>
+        <v>5.068710379418917e-05</v>
       </c>
       <c r="FX8" t="n">
-        <v>2.951921032945393e-06</v>
+        <v>0.0001207228560815565</v>
       </c>
       <c r="FY8" t="n">
-        <v>1.543589496577624e-05</v>
+        <v>7.045459642540663e-05</v>
       </c>
       <c r="FZ8" t="n">
-        <v>1.47527780427481e-05</v>
+        <v>0.0002105933090206236</v>
       </c>
       <c r="GA8" t="n">
-        <v>1.654989682720043e-05</v>
+        <v>2.326890535186976e-05</v>
       </c>
       <c r="GB8" t="n">
-        <v>6.046114776836475e-06</v>
+        <v>0.0001587430451763794</v>
       </c>
       <c r="GC8" t="n">
-        <v>1.305535988649353e-06</v>
+        <v>0.0001496007316745818</v>
       </c>
       <c r="GD8" t="n">
-        <v>3.622196891228668e-05</v>
+        <v>0.0003080392198171467</v>
       </c>
       <c r="GE8" t="n">
-        <v>3.353449210408144e-05</v>
+        <v>0.0002867106813937426</v>
       </c>
       <c r="GF8" t="n">
-        <v>3.602808646974154e-06</v>
+        <v>4.808702215086669e-06</v>
       </c>
       <c r="GG8" t="n">
-        <v>3.787269088206813e-05</v>
+        <v>0.0001312531239818782</v>
       </c>
     </row>
   </sheetData>
